--- a/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/15.cursor_de_mover/10+-+Tipos+de+Cursores+(Mover).xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/15.cursor_de_mover/10+-+Tipos+de+Cursores+(Mover).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2.basico_introducao_excel\15.cursor_de_mover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A36406-51F7-423A-A381-6AE559C9BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E601AB-7C6A-4CF6-B9C6-9C66C6D94428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Mover" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -283,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -291,49 +283,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,9 +314,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +322,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,42 +644,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -732,105 +690,105 @@
       <c r="J7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
+        <v>85</v>
+      </c>
+      <c r="L8" s="6">
         <v>5</v>
       </c>
-      <c r="M8" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="I9" s="6">
         <v>2</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
+        <v>82</v>
+      </c>
+      <c r="L9" s="6">
         <v>10</v>
       </c>
-      <c r="M9" s="7">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7">
+        <v>83</v>
+      </c>
+      <c r="L10" s="6">
         <v>15</v>
       </c>
-      <c r="I10" s="6">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="7">
+        <v>87</v>
+      </c>
+      <c r="L11" s="6">
         <v>20</v>
       </c>
-      <c r="M10" s="7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="M11" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="I14" s="6">
-        <v>3</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -846,77 +804,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4B4D7A-1E18-4FF4-9A11-C2C68A832E5F}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
+      <c r="E9">
         <v>365</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>1</v>
       </c>
@@ -924,45 +876,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="13">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
         <v>3</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="7">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
         <v>4</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -973,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -983,17 +937,8 @@
       <c r="D30">
         <v>19</v>
       </c>
-      <c r="F30" s="13">
-        <v>4</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>3</v>
       </c>
@@ -1004,25 +949,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="18">
+        <v>4</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>19</v>
       </c>
     </row>
@@ -1043,29 +999,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1073,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1081,18 +1037,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
